--- a/数据整理/stocks/A股/创业板/300602-飞荣达.xlsx
+++ b/数据整理/stocks/A股/创业板/300602-飞荣达.xlsx
@@ -6,8 +6,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,37 +462,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -502,112 +482,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>168207</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中融创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.39</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2037</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010613</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中融产业趋势一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.98</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0545</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010614</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中融产业趋势一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.98</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0069</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.27</v>
       </c>
     </row>
   </sheetData>
@@ -621,7 +503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,17 +514,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -652,14 +554,112 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.27</v>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2037</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
